--- a/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -657,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +669,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -688,13 +709,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -790,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,17 +802,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -821,14 +842,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -837,13 +880,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>人保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -580,72 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005042</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>人保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -710,36 +588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -748,36 +626,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -842,36 +720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -880,36 +758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,17 +812,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -954,14 +852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -970,14 +890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -986,14 +928,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>015688</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -720,36 +735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -758,36 +773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -796,6 +811,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603890-春秋电子.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>168105</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰泰富灵活配置混合（LOF）A</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0851</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -643,34 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015688</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰泰富灵活配置混合（LOF）C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -735,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>168105</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>九泰泰富灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -773,36 +792,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>015688</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>九泰泰富灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -867,36 +884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -905,36 +922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>82.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -943,6 +960,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
